--- a/test-data/TestData.xlsx
+++ b/test-data/TestData.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965" tabRatio="982" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7965" tabRatio="982"/>
   </bookViews>
   <sheets>
     <sheet name="FLOWMAPPER" sheetId="6" r:id="rId1"/>
-    <sheet name="AutomationPage" sheetId="3" r:id="rId2"/>
+    <sheet name="Assignment1Page" sheetId="3" r:id="rId2"/>
+    <sheet name="Assignment2Page" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FLOWMAPPER!$A$1:$E$2</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -38,7 +39,7 @@
     <t>FlowMapper_001</t>
   </si>
   <si>
-    <t>Positive flow</t>
+    <t>Assignment 1</t>
   </si>
   <si>
     <t>Positive</t>
@@ -47,31 +48,55 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>AutomationTest_001</t>
+    <t>Assignment1Test_001</t>
+  </si>
+  <si>
+    <t>Assignment 2</t>
+  </si>
+  <si>
+    <t>Assignment2Test_001</t>
   </si>
   <si>
     <t>TESTON</t>
   </si>
   <si>
-    <t>PRICE</t>
+    <t>AMAZON_MODEL_NAME</t>
   </si>
   <si>
-    <t>EMAIL</t>
+    <t>FLIPKART_MODEL_NAME</t>
   </si>
   <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>Positive Flow</t>
+    <t>Get the model name</t>
   </si>
   <si>
     <t>WEB</t>
   </si>
   <si>
-    <t>khanna49ankush@gmail.com</t>
+    <t>iPhone 12 (128GB) - Blue</t>
   </si>
   <si>
-    <t>auto123$</t>
+    <t>iPhone 12 (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>HOTEL_NAME</t>
+  </si>
+  <si>
+    <t>REVIEW_TITLE</t>
+  </si>
+  <si>
+    <t>REVIEW_TEXT</t>
+  </si>
+  <si>
+    <t>Get the hotel name</t>
+  </si>
+  <si>
+    <t>Club Mahindra</t>
+  </si>
+  <si>
+    <t>Club Mahindra review</t>
+  </si>
+  <si>
+    <t>The hotel is good with top quality food and fast service. It's location is pretty awesome with respect to surroundings and atmosphere. Cleanliness in the rooms is top notch. I would recommend this hotel to my friends.</t>
   </si>
 </sst>
 </file>
@@ -80,9 +105,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -102,14 +127,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -132,7 +149,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,23 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,13 +221,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,22 +240,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -246,7 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,8 +262,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +319,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,13 +367,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,79 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,19 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +469,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,12 +487,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,12 +494,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +522,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -512,6 +546,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,41 +572,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,157 +608,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -769,22 +794,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1210,28 +1232,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7142857142857" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="25.7142857142857" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.2857142857143" style="9" customWidth="1"/>
-    <col min="2" max="2" width="53.1428571428571" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.1428571428571" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11" style="9" customWidth="1"/>
-    <col min="5" max="5" width="19.5714285714286" style="9" customWidth="1"/>
-    <col min="6" max="16358" width="25.7142857142857" style="9" customWidth="1"/>
-    <col min="16359" max="16384" width="25.7142857142857" style="9"/>
+    <col min="1" max="1" width="16.2857142857143" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.1428571428571" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.1428571428571" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.5714285714286" style="8" customWidth="1"/>
+    <col min="6" max="16358" width="25.7142857142857" style="8" customWidth="1"/>
+    <col min="16359" max="16384" width="25.7142857142857" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:5">
+    <row r="1" s="8" customFormat="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1244,40 +1266,67 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:5">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:5">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="8" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="0" priority="896" operator="between" text="Yes">
+    <cfRule type="containsText" dxfId="0" priority="898" operator="between" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="containsText" dxfId="1" priority="881" operator="between" text="FCM">
+  <conditionalFormatting sqref="B3">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="between" text="FCM">
+      <formula>NOT(ISERROR(SEARCH("FCM",B3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="between" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B2 B4:B1048576">
+    <cfRule type="containsText" dxfId="1" priority="883" operator="between" text="FCM">
       <formula>NOT(ISERROR(SEARCH("FCM",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D3:D1048576">
-    <cfRule type="containsText" dxfId="0" priority="16952" operator="between" text="Yes">
+  <conditionalFormatting sqref="D1 D4:D1048576">
+    <cfRule type="containsText" dxfId="0" priority="16954" operator="between" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1290,14 +1339,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:ALS2"/>
+  <dimension ref="A1:ALQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.2857142857143" defaultRowHeight="18" customHeight="1" outlineLevelRow="1"/>
@@ -1305,14 +1354,13 @@
     <col min="1" max="1" width="19.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.5714285714286" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.42857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.14285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="1009" width="34.2857142857143" style="1" customWidth="1"/>
-    <col min="1010" max="16384" width="34.2857142857143" style="1"/>
+    <col min="4" max="4" width="26.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="1007" width="34.2857142857143" style="1" customWidth="1"/>
+    <col min="1008" max="16384" width="34.2857142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1007">
+    <row r="1" customHeight="1" spans="1:1005">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1320,17 +1368,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -2330,33 +2376,1094 @@
       <c r="ALO1" s="6"/>
       <c r="ALP1" s="6"/>
       <c r="ALQ1" s="6"/>
-      <c r="ALR1" s="6"/>
-      <c r="ALS1" s="6"/>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>27</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="khanna49ankush@gmail.com"/>
-  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:ALP2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="34.2857142857143" defaultRowHeight="18" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.42857142857143" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="48.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="1006" width="34.2857142857143" style="1" customWidth="1"/>
+    <col min="1007" max="16383" width="34.2857142857143" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:1004">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="6"/>
+      <c r="CI1" s="6"/>
+      <c r="CJ1" s="6"/>
+      <c r="CK1" s="6"/>
+      <c r="CL1" s="6"/>
+      <c r="CM1" s="6"/>
+      <c r="CN1" s="6"/>
+      <c r="CO1" s="6"/>
+      <c r="CP1" s="6"/>
+      <c r="CQ1" s="6"/>
+      <c r="CR1" s="6"/>
+      <c r="CS1" s="6"/>
+      <c r="CT1" s="6"/>
+      <c r="CU1" s="6"/>
+      <c r="CV1" s="6"/>
+      <c r="CW1" s="6"/>
+      <c r="CX1" s="6"/>
+      <c r="CY1" s="6"/>
+      <c r="CZ1" s="6"/>
+      <c r="DA1" s="6"/>
+      <c r="DB1" s="6"/>
+      <c r="DC1" s="6"/>
+      <c r="DD1" s="6"/>
+      <c r="DE1" s="6"/>
+      <c r="DF1" s="6"/>
+      <c r="DG1" s="6"/>
+      <c r="DH1" s="6"/>
+      <c r="DI1" s="6"/>
+      <c r="DJ1" s="6"/>
+      <c r="DK1" s="6"/>
+      <c r="DL1" s="6"/>
+      <c r="DM1" s="6"/>
+      <c r="DN1" s="6"/>
+      <c r="DO1" s="6"/>
+      <c r="DP1" s="6"/>
+      <c r="DQ1" s="6"/>
+      <c r="DR1" s="6"/>
+      <c r="DS1" s="6"/>
+      <c r="DT1" s="6"/>
+      <c r="DU1" s="6"/>
+      <c r="DV1" s="6"/>
+      <c r="DW1" s="6"/>
+      <c r="DX1" s="6"/>
+      <c r="DY1" s="6"/>
+      <c r="DZ1" s="6"/>
+      <c r="EA1" s="6"/>
+      <c r="EB1" s="6"/>
+      <c r="EC1" s="6"/>
+      <c r="ED1" s="6"/>
+      <c r="EE1" s="6"/>
+      <c r="EF1" s="6"/>
+      <c r="EG1" s="6"/>
+      <c r="EH1" s="6"/>
+      <c r="EI1" s="6"/>
+      <c r="EJ1" s="6"/>
+      <c r="EK1" s="6"/>
+      <c r="EL1" s="6"/>
+      <c r="EM1" s="6"/>
+      <c r="EN1" s="6"/>
+      <c r="EO1" s="6"/>
+      <c r="EP1" s="6"/>
+      <c r="EQ1" s="6"/>
+      <c r="ER1" s="6"/>
+      <c r="ES1" s="6"/>
+      <c r="ET1" s="6"/>
+      <c r="EU1" s="6"/>
+      <c r="EV1" s="6"/>
+      <c r="EW1" s="6"/>
+      <c r="EX1" s="6"/>
+      <c r="EY1" s="6"/>
+      <c r="EZ1" s="6"/>
+      <c r="FA1" s="6"/>
+      <c r="FB1" s="6"/>
+      <c r="FC1" s="6"/>
+      <c r="FD1" s="6"/>
+      <c r="FE1" s="6"/>
+      <c r="FF1" s="6"/>
+      <c r="FG1" s="6"/>
+      <c r="FH1" s="6"/>
+      <c r="FI1" s="6"/>
+      <c r="FJ1" s="6"/>
+      <c r="FK1" s="6"/>
+      <c r="FL1" s="6"/>
+      <c r="FM1" s="6"/>
+      <c r="FN1" s="6"/>
+      <c r="FO1" s="6"/>
+      <c r="FP1" s="6"/>
+      <c r="FQ1" s="6"/>
+      <c r="FR1" s="6"/>
+      <c r="FS1" s="6"/>
+      <c r="FT1" s="6"/>
+      <c r="FU1" s="6"/>
+      <c r="FV1" s="6"/>
+      <c r="FW1" s="6"/>
+      <c r="FX1" s="6"/>
+      <c r="FY1" s="6"/>
+      <c r="FZ1" s="6"/>
+      <c r="GA1" s="6"/>
+      <c r="GB1" s="6"/>
+      <c r="GC1" s="6"/>
+      <c r="GD1" s="6"/>
+      <c r="GE1" s="6"/>
+      <c r="GF1" s="6"/>
+      <c r="GG1" s="6"/>
+      <c r="GH1" s="6"/>
+      <c r="GI1" s="6"/>
+      <c r="GJ1" s="6"/>
+      <c r="GK1" s="6"/>
+      <c r="GL1" s="6"/>
+      <c r="GM1" s="6"/>
+      <c r="GN1" s="6"/>
+      <c r="GO1" s="6"/>
+      <c r="GP1" s="6"/>
+      <c r="GQ1" s="6"/>
+      <c r="GR1" s="6"/>
+      <c r="GS1" s="6"/>
+      <c r="GT1" s="6"/>
+      <c r="GU1" s="6"/>
+      <c r="GV1" s="6"/>
+      <c r="GW1" s="6"/>
+      <c r="GX1" s="6"/>
+      <c r="GY1" s="6"/>
+      <c r="GZ1" s="6"/>
+      <c r="HA1" s="6"/>
+      <c r="HB1" s="6"/>
+      <c r="HC1" s="6"/>
+      <c r="HD1" s="6"/>
+      <c r="HE1" s="6"/>
+      <c r="HF1" s="6"/>
+      <c r="HG1" s="6"/>
+      <c r="HH1" s="6"/>
+      <c r="HI1" s="6"/>
+      <c r="HJ1" s="6"/>
+      <c r="HK1" s="6"/>
+      <c r="HL1" s="6"/>
+      <c r="HM1" s="6"/>
+      <c r="HN1" s="6"/>
+      <c r="HO1" s="6"/>
+      <c r="HP1" s="6"/>
+      <c r="HQ1" s="6"/>
+      <c r="HR1" s="6"/>
+      <c r="HS1" s="6"/>
+      <c r="HT1" s="6"/>
+      <c r="HU1" s="6"/>
+      <c r="HV1" s="6"/>
+      <c r="HW1" s="6"/>
+      <c r="HX1" s="6"/>
+      <c r="HY1" s="6"/>
+      <c r="HZ1" s="6"/>
+      <c r="IA1" s="6"/>
+      <c r="IB1" s="6"/>
+      <c r="IC1" s="6"/>
+      <c r="ID1" s="6"/>
+      <c r="IE1" s="6"/>
+      <c r="IF1" s="6"/>
+      <c r="IG1" s="6"/>
+      <c r="IH1" s="6"/>
+      <c r="II1" s="6"/>
+      <c r="IJ1" s="6"/>
+      <c r="IK1" s="6"/>
+      <c r="IL1" s="6"/>
+      <c r="IM1" s="6"/>
+      <c r="IN1" s="6"/>
+      <c r="IO1" s="6"/>
+      <c r="IP1" s="6"/>
+      <c r="IQ1" s="6"/>
+      <c r="IR1" s="6"/>
+      <c r="IS1" s="6"/>
+      <c r="IT1" s="6"/>
+      <c r="IU1" s="6"/>
+      <c r="IV1" s="6"/>
+      <c r="IW1" s="6"/>
+      <c r="IX1" s="6"/>
+      <c r="IY1" s="6"/>
+      <c r="IZ1" s="6"/>
+      <c r="JA1" s="6"/>
+      <c r="JB1" s="6"/>
+      <c r="JC1" s="6"/>
+      <c r="JD1" s="6"/>
+      <c r="JE1" s="6"/>
+      <c r="JF1" s="6"/>
+      <c r="JG1" s="6"/>
+      <c r="JH1" s="6"/>
+      <c r="JI1" s="6"/>
+      <c r="JJ1" s="6"/>
+      <c r="JK1" s="6"/>
+      <c r="JL1" s="6"/>
+      <c r="JM1" s="6"/>
+      <c r="JN1" s="6"/>
+      <c r="JO1" s="6"/>
+      <c r="JP1" s="6"/>
+      <c r="JQ1" s="6"/>
+      <c r="JR1" s="6"/>
+      <c r="JS1" s="6"/>
+      <c r="JT1" s="6"/>
+      <c r="JU1" s="6"/>
+      <c r="JV1" s="6"/>
+      <c r="JW1" s="6"/>
+      <c r="JX1" s="6"/>
+      <c r="JY1" s="6"/>
+      <c r="JZ1" s="6"/>
+      <c r="KA1" s="6"/>
+      <c r="KB1" s="6"/>
+      <c r="KC1" s="6"/>
+      <c r="KD1" s="6"/>
+      <c r="KE1" s="6"/>
+      <c r="KF1" s="6"/>
+      <c r="KG1" s="6"/>
+      <c r="KH1" s="6"/>
+      <c r="KI1" s="6"/>
+      <c r="KJ1" s="6"/>
+      <c r="KK1" s="6"/>
+      <c r="KL1" s="6"/>
+      <c r="KM1" s="6"/>
+      <c r="KN1" s="6"/>
+      <c r="KO1" s="6"/>
+      <c r="KP1" s="6"/>
+      <c r="KQ1" s="6"/>
+      <c r="KR1" s="6"/>
+      <c r="KS1" s="6"/>
+      <c r="KT1" s="6"/>
+      <c r="KU1" s="6"/>
+      <c r="KV1" s="6"/>
+      <c r="KW1" s="6"/>
+      <c r="KX1" s="6"/>
+      <c r="KY1" s="6"/>
+      <c r="KZ1" s="6"/>
+      <c r="LA1" s="6"/>
+      <c r="LB1" s="6"/>
+      <c r="LC1" s="6"/>
+      <c r="LD1" s="6"/>
+      <c r="LE1" s="6"/>
+      <c r="LF1" s="6"/>
+      <c r="LG1" s="6"/>
+      <c r="LH1" s="6"/>
+      <c r="LI1" s="6"/>
+      <c r="LJ1" s="6"/>
+      <c r="LK1" s="6"/>
+      <c r="LL1" s="6"/>
+      <c r="LM1" s="6"/>
+      <c r="LN1" s="6"/>
+      <c r="LO1" s="6"/>
+      <c r="LP1" s="6"/>
+      <c r="LQ1" s="6"/>
+      <c r="LR1" s="6"/>
+      <c r="LS1" s="6"/>
+      <c r="LT1" s="6"/>
+      <c r="LU1" s="6"/>
+      <c r="LV1" s="6"/>
+      <c r="LW1" s="6"/>
+      <c r="LX1" s="6"/>
+      <c r="LY1" s="6"/>
+      <c r="LZ1" s="6"/>
+      <c r="MA1" s="6"/>
+      <c r="MB1" s="6"/>
+      <c r="MC1" s="6"/>
+      <c r="MD1" s="6"/>
+      <c r="ME1" s="6"/>
+      <c r="MF1" s="6"/>
+      <c r="MG1" s="6"/>
+      <c r="MH1" s="6"/>
+      <c r="MI1" s="6"/>
+      <c r="MJ1" s="6"/>
+      <c r="MK1" s="6"/>
+      <c r="ML1" s="6"/>
+      <c r="MM1" s="6"/>
+      <c r="MN1" s="6"/>
+      <c r="MO1" s="6"/>
+      <c r="MP1" s="6"/>
+      <c r="MQ1" s="6"/>
+      <c r="MR1" s="6"/>
+      <c r="MS1" s="6"/>
+      <c r="MT1" s="6"/>
+      <c r="MU1" s="6"/>
+      <c r="MV1" s="6"/>
+      <c r="MW1" s="6"/>
+      <c r="MX1" s="6"/>
+      <c r="MY1" s="6"/>
+      <c r="MZ1" s="6"/>
+      <c r="NA1" s="6"/>
+      <c r="NB1" s="6"/>
+      <c r="NC1" s="6"/>
+      <c r="ND1" s="6"/>
+      <c r="NE1" s="6"/>
+      <c r="NF1" s="6"/>
+      <c r="NG1" s="6"/>
+      <c r="NH1" s="6"/>
+      <c r="NI1" s="6"/>
+      <c r="NJ1" s="6"/>
+      <c r="NK1" s="6"/>
+      <c r="NL1" s="6"/>
+      <c r="NM1" s="6"/>
+      <c r="NN1" s="6"/>
+      <c r="NO1" s="6"/>
+      <c r="NP1" s="6"/>
+      <c r="NQ1" s="6"/>
+      <c r="NR1" s="6"/>
+      <c r="NS1" s="6"/>
+      <c r="NT1" s="6"/>
+      <c r="NU1" s="6"/>
+      <c r="NV1" s="6"/>
+      <c r="NW1" s="6"/>
+      <c r="NX1" s="6"/>
+      <c r="NY1" s="6"/>
+      <c r="NZ1" s="6"/>
+      <c r="OA1" s="6"/>
+      <c r="OB1" s="6"/>
+      <c r="OC1" s="6"/>
+      <c r="OD1" s="6"/>
+      <c r="OE1" s="6"/>
+      <c r="OF1" s="6"/>
+      <c r="OG1" s="6"/>
+      <c r="OH1" s="6"/>
+      <c r="OI1" s="6"/>
+      <c r="OJ1" s="6"/>
+      <c r="OK1" s="6"/>
+      <c r="OL1" s="6"/>
+      <c r="OM1" s="6"/>
+      <c r="ON1" s="6"/>
+      <c r="OO1" s="6"/>
+      <c r="OP1" s="6"/>
+      <c r="OQ1" s="6"/>
+      <c r="OR1" s="6"/>
+      <c r="OS1" s="6"/>
+      <c r="OT1" s="6"/>
+      <c r="OU1" s="6"/>
+      <c r="OV1" s="6"/>
+      <c r="OW1" s="6"/>
+      <c r="OX1" s="6"/>
+      <c r="OY1" s="6"/>
+      <c r="OZ1" s="6"/>
+      <c r="PA1" s="6"/>
+      <c r="PB1" s="6"/>
+      <c r="PC1" s="6"/>
+      <c r="PD1" s="6"/>
+      <c r="PE1" s="6"/>
+      <c r="PF1" s="6"/>
+      <c r="PG1" s="6"/>
+      <c r="PH1" s="6"/>
+      <c r="PI1" s="6"/>
+      <c r="PJ1" s="6"/>
+      <c r="PK1" s="6"/>
+      <c r="PL1" s="6"/>
+      <c r="PM1" s="6"/>
+      <c r="PN1" s="6"/>
+      <c r="PO1" s="6"/>
+      <c r="PP1" s="6"/>
+      <c r="PQ1" s="6"/>
+      <c r="PR1" s="6"/>
+      <c r="PS1" s="6"/>
+      <c r="PT1" s="6"/>
+      <c r="PU1" s="6"/>
+      <c r="PV1" s="6"/>
+      <c r="PW1" s="6"/>
+      <c r="PX1" s="6"/>
+      <c r="PY1" s="6"/>
+      <c r="PZ1" s="6"/>
+      <c r="QA1" s="6"/>
+      <c r="QB1" s="6"/>
+      <c r="QC1" s="6"/>
+      <c r="QD1" s="6"/>
+      <c r="QE1" s="6"/>
+      <c r="QF1" s="6"/>
+      <c r="QG1" s="6"/>
+      <c r="QH1" s="6"/>
+      <c r="QI1" s="6"/>
+      <c r="QJ1" s="6"/>
+      <c r="QK1" s="6"/>
+      <c r="QL1" s="6"/>
+      <c r="QM1" s="6"/>
+      <c r="QN1" s="6"/>
+      <c r="QO1" s="6"/>
+      <c r="QP1" s="6"/>
+      <c r="QQ1" s="6"/>
+      <c r="QR1" s="6"/>
+      <c r="QS1" s="6"/>
+      <c r="QT1" s="6"/>
+      <c r="QU1" s="6"/>
+      <c r="QV1" s="6"/>
+      <c r="QW1" s="6"/>
+      <c r="QX1" s="6"/>
+      <c r="QY1" s="6"/>
+      <c r="QZ1" s="6"/>
+      <c r="RA1" s="6"/>
+      <c r="RB1" s="6"/>
+      <c r="RC1" s="6"/>
+      <c r="RD1" s="6"/>
+      <c r="RE1" s="6"/>
+      <c r="RF1" s="6"/>
+      <c r="RG1" s="6"/>
+      <c r="RH1" s="6"/>
+      <c r="RI1" s="6"/>
+      <c r="RJ1" s="6"/>
+      <c r="RK1" s="6"/>
+      <c r="RL1" s="6"/>
+      <c r="RM1" s="6"/>
+      <c r="RN1" s="6"/>
+      <c r="RO1" s="6"/>
+      <c r="RP1" s="6"/>
+      <c r="RQ1" s="6"/>
+      <c r="RR1" s="6"/>
+      <c r="RS1" s="6"/>
+      <c r="RT1" s="6"/>
+      <c r="RU1" s="6"/>
+      <c r="RV1" s="6"/>
+      <c r="RW1" s="6"/>
+      <c r="RX1" s="6"/>
+      <c r="RY1" s="6"/>
+      <c r="RZ1" s="6"/>
+      <c r="SA1" s="6"/>
+      <c r="SB1" s="6"/>
+      <c r="SC1" s="6"/>
+      <c r="SD1" s="6"/>
+      <c r="SE1" s="6"/>
+      <c r="SF1" s="6"/>
+      <c r="SG1" s="6"/>
+      <c r="SH1" s="6"/>
+      <c r="SI1" s="6"/>
+      <c r="SJ1" s="6"/>
+      <c r="SK1" s="6"/>
+      <c r="SL1" s="6"/>
+      <c r="SM1" s="6"/>
+      <c r="SN1" s="6"/>
+      <c r="SO1" s="6"/>
+      <c r="SP1" s="6"/>
+      <c r="SQ1" s="6"/>
+      <c r="SR1" s="6"/>
+      <c r="SS1" s="6"/>
+      <c r="ST1" s="6"/>
+      <c r="SU1" s="6"/>
+      <c r="SV1" s="6"/>
+      <c r="SW1" s="6"/>
+      <c r="SX1" s="6"/>
+      <c r="SY1" s="6"/>
+      <c r="SZ1" s="6"/>
+      <c r="TA1" s="6"/>
+      <c r="TB1" s="6"/>
+      <c r="TC1" s="6"/>
+      <c r="TD1" s="6"/>
+      <c r="TE1" s="6"/>
+      <c r="TF1" s="6"/>
+      <c r="TG1" s="6"/>
+      <c r="TH1" s="6"/>
+      <c r="TI1" s="6"/>
+      <c r="TJ1" s="6"/>
+      <c r="TK1" s="6"/>
+      <c r="TL1" s="6"/>
+      <c r="TM1" s="6"/>
+      <c r="TN1" s="6"/>
+      <c r="TO1" s="6"/>
+      <c r="TP1" s="6"/>
+      <c r="TQ1" s="6"/>
+      <c r="TR1" s="6"/>
+      <c r="TS1" s="6"/>
+      <c r="TT1" s="6"/>
+      <c r="TU1" s="6"/>
+      <c r="TV1" s="6"/>
+      <c r="TW1" s="6"/>
+      <c r="TX1" s="6"/>
+      <c r="TY1" s="6"/>
+      <c r="TZ1" s="6"/>
+      <c r="UA1" s="6"/>
+      <c r="UB1" s="6"/>
+      <c r="UC1" s="6"/>
+      <c r="UD1" s="6"/>
+      <c r="UE1" s="6"/>
+      <c r="UF1" s="6"/>
+      <c r="UG1" s="6"/>
+      <c r="UH1" s="6"/>
+      <c r="UI1" s="6"/>
+      <c r="UJ1" s="6"/>
+      <c r="UK1" s="6"/>
+      <c r="UL1" s="6"/>
+      <c r="UM1" s="6"/>
+      <c r="UN1" s="6"/>
+      <c r="UO1" s="6"/>
+      <c r="UP1" s="6"/>
+      <c r="UQ1" s="6"/>
+      <c r="UR1" s="6"/>
+      <c r="US1" s="6"/>
+      <c r="UT1" s="6"/>
+      <c r="UU1" s="6"/>
+      <c r="UV1" s="6"/>
+      <c r="UW1" s="6"/>
+      <c r="UX1" s="6"/>
+      <c r="UY1" s="6"/>
+      <c r="UZ1" s="6"/>
+      <c r="VA1" s="6"/>
+      <c r="VB1" s="6"/>
+      <c r="VC1" s="6"/>
+      <c r="VD1" s="6"/>
+      <c r="VE1" s="6"/>
+      <c r="VF1" s="6"/>
+      <c r="VG1" s="6"/>
+      <c r="VH1" s="6"/>
+      <c r="VI1" s="6"/>
+      <c r="VJ1" s="6"/>
+      <c r="VK1" s="6"/>
+      <c r="VL1" s="6"/>
+      <c r="VM1" s="6"/>
+      <c r="VN1" s="6"/>
+      <c r="VO1" s="6"/>
+      <c r="VP1" s="6"/>
+      <c r="VQ1" s="6"/>
+      <c r="VR1" s="6"/>
+      <c r="VS1" s="6"/>
+      <c r="VT1" s="6"/>
+      <c r="VU1" s="6"/>
+      <c r="VV1" s="6"/>
+      <c r="VW1" s="6"/>
+      <c r="VX1" s="6"/>
+      <c r="VY1" s="6"/>
+      <c r="VZ1" s="6"/>
+      <c r="WA1" s="6"/>
+      <c r="WB1" s="6"/>
+      <c r="WC1" s="6"/>
+      <c r="WD1" s="6"/>
+      <c r="WE1" s="6"/>
+      <c r="WF1" s="6"/>
+      <c r="WG1" s="6"/>
+      <c r="WH1" s="6"/>
+      <c r="WI1" s="6"/>
+      <c r="WJ1" s="6"/>
+      <c r="WK1" s="6"/>
+      <c r="WL1" s="6"/>
+      <c r="WM1" s="6"/>
+      <c r="WN1" s="6"/>
+      <c r="WO1" s="6"/>
+      <c r="WP1" s="6"/>
+      <c r="WQ1" s="6"/>
+      <c r="WR1" s="6"/>
+      <c r="WS1" s="6"/>
+      <c r="WT1" s="6"/>
+      <c r="WU1" s="6"/>
+      <c r="WV1" s="6"/>
+      <c r="WW1" s="6"/>
+      <c r="WX1" s="6"/>
+      <c r="WY1" s="6"/>
+      <c r="WZ1" s="6"/>
+      <c r="XA1" s="6"/>
+      <c r="XB1" s="6"/>
+      <c r="XC1" s="6"/>
+      <c r="XD1" s="6"/>
+      <c r="XE1" s="6"/>
+      <c r="XF1" s="6"/>
+      <c r="XG1" s="6"/>
+      <c r="XH1" s="6"/>
+      <c r="XI1" s="6"/>
+      <c r="XJ1" s="6"/>
+      <c r="XK1" s="6"/>
+      <c r="XL1" s="6"/>
+      <c r="XM1" s="6"/>
+      <c r="XN1" s="6"/>
+      <c r="XO1" s="6"/>
+      <c r="XP1" s="6"/>
+      <c r="XQ1" s="6"/>
+      <c r="XR1" s="6"/>
+      <c r="XS1" s="6"/>
+      <c r="XT1" s="6"/>
+      <c r="XU1" s="6"/>
+      <c r="XV1" s="6"/>
+      <c r="XW1" s="6"/>
+      <c r="XX1" s="6"/>
+      <c r="XY1" s="6"/>
+      <c r="XZ1" s="6"/>
+      <c r="YA1" s="6"/>
+      <c r="YB1" s="6"/>
+      <c r="YC1" s="6"/>
+      <c r="YD1" s="6"/>
+      <c r="YE1" s="6"/>
+      <c r="YF1" s="6"/>
+      <c r="YG1" s="6"/>
+      <c r="YH1" s="6"/>
+      <c r="YI1" s="6"/>
+      <c r="YJ1" s="6"/>
+      <c r="YK1" s="6"/>
+      <c r="YL1" s="6"/>
+      <c r="YM1" s="6"/>
+      <c r="YN1" s="6"/>
+      <c r="YO1" s="6"/>
+      <c r="YP1" s="6"/>
+      <c r="YQ1" s="6"/>
+      <c r="YR1" s="6"/>
+      <c r="YS1" s="6"/>
+      <c r="YT1" s="6"/>
+      <c r="YU1" s="6"/>
+      <c r="YV1" s="6"/>
+      <c r="YW1" s="6"/>
+      <c r="YX1" s="6"/>
+      <c r="YY1" s="6"/>
+      <c r="YZ1" s="6"/>
+      <c r="ZA1" s="6"/>
+      <c r="ZB1" s="6"/>
+      <c r="ZC1" s="6"/>
+      <c r="ZD1" s="6"/>
+      <c r="ZE1" s="6"/>
+      <c r="ZF1" s="6"/>
+      <c r="ZG1" s="6"/>
+      <c r="ZH1" s="6"/>
+      <c r="ZI1" s="6"/>
+      <c r="ZJ1" s="6"/>
+      <c r="ZK1" s="6"/>
+      <c r="ZL1" s="6"/>
+      <c r="ZM1" s="6"/>
+      <c r="ZN1" s="6"/>
+      <c r="ZO1" s="6"/>
+      <c r="ZP1" s="6"/>
+      <c r="ZQ1" s="6"/>
+      <c r="ZR1" s="6"/>
+      <c r="ZS1" s="6"/>
+      <c r="ZT1" s="6"/>
+      <c r="ZU1" s="6"/>
+      <c r="ZV1" s="6"/>
+      <c r="ZW1" s="6"/>
+      <c r="ZX1" s="6"/>
+      <c r="ZY1" s="6"/>
+      <c r="ZZ1" s="6"/>
+      <c r="AAA1" s="6"/>
+      <c r="AAB1" s="6"/>
+      <c r="AAC1" s="6"/>
+      <c r="AAD1" s="6"/>
+      <c r="AAE1" s="6"/>
+      <c r="AAF1" s="6"/>
+      <c r="AAG1" s="6"/>
+      <c r="AAH1" s="6"/>
+      <c r="AAI1" s="6"/>
+      <c r="AAJ1" s="6"/>
+      <c r="AAK1" s="6"/>
+      <c r="AAL1" s="6"/>
+      <c r="AAM1" s="6"/>
+      <c r="AAN1" s="6"/>
+      <c r="AAO1" s="6"/>
+      <c r="AAP1" s="6"/>
+      <c r="AAQ1" s="6"/>
+      <c r="AAR1" s="6"/>
+      <c r="AAS1" s="6"/>
+      <c r="AAT1" s="6"/>
+      <c r="AAU1" s="6"/>
+      <c r="AAV1" s="6"/>
+      <c r="AAW1" s="6"/>
+      <c r="AAX1" s="6"/>
+      <c r="AAY1" s="6"/>
+      <c r="AAZ1" s="6"/>
+      <c r="ABA1" s="6"/>
+      <c r="ABB1" s="6"/>
+      <c r="ABC1" s="6"/>
+      <c r="ABD1" s="6"/>
+      <c r="ABE1" s="6"/>
+      <c r="ABF1" s="6"/>
+      <c r="ABG1" s="6"/>
+      <c r="ABH1" s="6"/>
+      <c r="ABI1" s="6"/>
+      <c r="ABJ1" s="6"/>
+      <c r="ABK1" s="6"/>
+      <c r="ABL1" s="6"/>
+      <c r="ABM1" s="6"/>
+      <c r="ABN1" s="6"/>
+      <c r="ABO1" s="6"/>
+      <c r="ABP1" s="6"/>
+      <c r="ABQ1" s="6"/>
+      <c r="ABR1" s="6"/>
+      <c r="ABS1" s="6"/>
+      <c r="ABT1" s="6"/>
+      <c r="ABU1" s="6"/>
+      <c r="ABV1" s="6"/>
+      <c r="ABW1" s="6"/>
+      <c r="ABX1" s="6"/>
+      <c r="ABY1" s="6"/>
+      <c r="ABZ1" s="6"/>
+      <c r="ACA1" s="6"/>
+      <c r="ACB1" s="6"/>
+      <c r="ACC1" s="6"/>
+      <c r="ACD1" s="6"/>
+      <c r="ACE1" s="6"/>
+      <c r="ACF1" s="6"/>
+      <c r="ACG1" s="6"/>
+      <c r="ACH1" s="6"/>
+      <c r="ACI1" s="6"/>
+      <c r="ACJ1" s="6"/>
+      <c r="ACK1" s="6"/>
+      <c r="ACL1" s="6"/>
+      <c r="ACM1" s="6"/>
+      <c r="ACN1" s="6"/>
+      <c r="ACO1" s="6"/>
+      <c r="ACP1" s="6"/>
+      <c r="ACQ1" s="6"/>
+      <c r="ACR1" s="6"/>
+      <c r="ACS1" s="6"/>
+      <c r="ACT1" s="6"/>
+      <c r="ACU1" s="6"/>
+      <c r="ACV1" s="6"/>
+      <c r="ACW1" s="6"/>
+      <c r="ACX1" s="6"/>
+      <c r="ACY1" s="6"/>
+      <c r="ACZ1" s="6"/>
+      <c r="ADA1" s="6"/>
+      <c r="ADB1" s="6"/>
+      <c r="ADC1" s="6"/>
+      <c r="ADD1" s="6"/>
+      <c r="ADE1" s="6"/>
+      <c r="ADF1" s="6"/>
+      <c r="ADG1" s="6"/>
+      <c r="ADH1" s="6"/>
+      <c r="ADI1" s="6"/>
+      <c r="ADJ1" s="6"/>
+      <c r="ADK1" s="6"/>
+      <c r="ADL1" s="6"/>
+      <c r="ADM1" s="6"/>
+      <c r="ADN1" s="6"/>
+      <c r="ADO1" s="6"/>
+      <c r="ADP1" s="6"/>
+      <c r="ADQ1" s="6"/>
+      <c r="ADR1" s="6"/>
+      <c r="ADS1" s="6"/>
+      <c r="ADT1" s="6"/>
+      <c r="ADU1" s="6"/>
+      <c r="ADV1" s="6"/>
+      <c r="ADW1" s="6"/>
+      <c r="ADX1" s="6"/>
+      <c r="ADY1" s="6"/>
+      <c r="ADZ1" s="6"/>
+      <c r="AEA1" s="6"/>
+      <c r="AEB1" s="6"/>
+      <c r="AEC1" s="6"/>
+      <c r="AED1" s="6"/>
+      <c r="AEE1" s="6"/>
+      <c r="AEF1" s="6"/>
+      <c r="AEG1" s="6"/>
+      <c r="AEH1" s="6"/>
+      <c r="AEI1" s="6"/>
+      <c r="AEJ1" s="6"/>
+      <c r="AEK1" s="6"/>
+      <c r="AEL1" s="6"/>
+      <c r="AEM1" s="6"/>
+      <c r="AEN1" s="6"/>
+      <c r="AEO1" s="6"/>
+      <c r="AEP1" s="6"/>
+      <c r="AEQ1" s="6"/>
+      <c r="AER1" s="6"/>
+      <c r="AES1" s="6"/>
+      <c r="AET1" s="6"/>
+      <c r="AEU1" s="6"/>
+      <c r="AEV1" s="6"/>
+      <c r="AEW1" s="6"/>
+      <c r="AEX1" s="6"/>
+      <c r="AEY1" s="6"/>
+      <c r="AEZ1" s="6"/>
+      <c r="AFA1" s="6"/>
+      <c r="AFB1" s="6"/>
+      <c r="AFC1" s="6"/>
+      <c r="AFD1" s="6"/>
+      <c r="AFE1" s="6"/>
+      <c r="AFF1" s="6"/>
+      <c r="AFG1" s="6"/>
+      <c r="AFH1" s="6"/>
+      <c r="AFI1" s="6"/>
+      <c r="AFJ1" s="6"/>
+      <c r="AFK1" s="6"/>
+      <c r="AFL1" s="6"/>
+      <c r="AFM1" s="6"/>
+      <c r="AFN1" s="6"/>
+      <c r="AFO1" s="6"/>
+      <c r="AFP1" s="6"/>
+      <c r="AFQ1" s="6"/>
+      <c r="AFR1" s="6"/>
+      <c r="AFS1" s="6"/>
+      <c r="AFT1" s="6"/>
+      <c r="AFU1" s="6"/>
+      <c r="AFV1" s="6"/>
+      <c r="AFW1" s="6"/>
+      <c r="AFX1" s="6"/>
+      <c r="AFY1" s="6"/>
+      <c r="AFZ1" s="6"/>
+      <c r="AGA1" s="6"/>
+      <c r="AGB1" s="6"/>
+      <c r="AGC1" s="6"/>
+      <c r="AGD1" s="6"/>
+      <c r="AGE1" s="6"/>
+      <c r="AGF1" s="6"/>
+      <c r="AGG1" s="6"/>
+      <c r="AGH1" s="6"/>
+      <c r="AGI1" s="6"/>
+      <c r="AGJ1" s="6"/>
+      <c r="AGK1" s="6"/>
+      <c r="AGL1" s="6"/>
+      <c r="AGM1" s="6"/>
+      <c r="AGN1" s="6"/>
+      <c r="AGO1" s="6"/>
+      <c r="AGP1" s="6"/>
+      <c r="AGQ1" s="6"/>
+      <c r="AGR1" s="6"/>
+      <c r="AGS1" s="6"/>
+      <c r="AGT1" s="6"/>
+      <c r="AGU1" s="6"/>
+      <c r="AGV1" s="6"/>
+      <c r="AGW1" s="6"/>
+      <c r="AGX1" s="6"/>
+      <c r="AGY1" s="6"/>
+      <c r="AGZ1" s="6"/>
+      <c r="AHA1" s="6"/>
+      <c r="AHB1" s="6"/>
+      <c r="AHC1" s="6"/>
+      <c r="AHD1" s="6"/>
+      <c r="AHE1" s="6"/>
+      <c r="AHF1" s="6"/>
+      <c r="AHG1" s="6"/>
+      <c r="AHH1" s="6"/>
+      <c r="AHI1" s="6"/>
+      <c r="AHJ1" s="6"/>
+      <c r="AHK1" s="6"/>
+      <c r="AHL1" s="6"/>
+      <c r="AHM1" s="6"/>
+      <c r="AHN1" s="6"/>
+      <c r="AHO1" s="6"/>
+      <c r="AHP1" s="6"/>
+      <c r="AHQ1" s="6"/>
+      <c r="AHR1" s="6"/>
+      <c r="AHS1" s="6"/>
+      <c r="AHT1" s="6"/>
+      <c r="AHU1" s="6"/>
+      <c r="AHV1" s="6"/>
+      <c r="AHW1" s="6"/>
+      <c r="AHX1" s="6"/>
+      <c r="AHY1" s="6"/>
+      <c r="AHZ1" s="6"/>
+      <c r="AIA1" s="6"/>
+      <c r="AIB1" s="6"/>
+      <c r="AIC1" s="6"/>
+      <c r="AID1" s="6"/>
+      <c r="AIE1" s="6"/>
+      <c r="AIF1" s="6"/>
+      <c r="AIG1" s="6"/>
+      <c r="AIH1" s="6"/>
+      <c r="AII1" s="6"/>
+      <c r="AIJ1" s="6"/>
+      <c r="AIK1" s="6"/>
+      <c r="AIL1" s="6"/>
+      <c r="AIM1" s="6"/>
+      <c r="AIN1" s="6"/>
+      <c r="AIO1" s="6"/>
+      <c r="AIP1" s="6"/>
+      <c r="AIQ1" s="6"/>
+      <c r="AIR1" s="6"/>
+      <c r="AIS1" s="6"/>
+      <c r="AIT1" s="6"/>
+      <c r="AIU1" s="6"/>
+      <c r="AIV1" s="6"/>
+      <c r="AIW1" s="6"/>
+      <c r="AIX1" s="6"/>
+      <c r="AIY1" s="6"/>
+      <c r="AIZ1" s="6"/>
+      <c r="AJA1" s="6"/>
+      <c r="AJB1" s="6"/>
+      <c r="AJC1" s="6"/>
+      <c r="AJD1" s="6"/>
+      <c r="AJE1" s="6"/>
+      <c r="AJF1" s="6"/>
+      <c r="AJG1" s="6"/>
+      <c r="AJH1" s="6"/>
+      <c r="AJI1" s="6"/>
+      <c r="AJJ1" s="6"/>
+      <c r="AJK1" s="6"/>
+      <c r="AJL1" s="6"/>
+      <c r="AJM1" s="6"/>
+      <c r="AJN1" s="6"/>
+      <c r="AJO1" s="6"/>
+      <c r="AJP1" s="6"/>
+      <c r="AJQ1" s="6"/>
+      <c r="AJR1" s="6"/>
+      <c r="AJS1" s="6"/>
+      <c r="AJT1" s="6"/>
+      <c r="AJU1" s="6"/>
+      <c r="AJV1" s="6"/>
+      <c r="AJW1" s="6"/>
+      <c r="AJX1" s="6"/>
+      <c r="AJY1" s="6"/>
+      <c r="AJZ1" s="6"/>
+      <c r="AKA1" s="6"/>
+      <c r="AKB1" s="6"/>
+      <c r="AKC1" s="6"/>
+      <c r="AKD1" s="6"/>
+      <c r="AKE1" s="6"/>
+      <c r="AKF1" s="6"/>
+      <c r="AKG1" s="6"/>
+      <c r="AKH1" s="6"/>
+      <c r="AKI1" s="6"/>
+      <c r="AKJ1" s="6"/>
+      <c r="AKK1" s="6"/>
+      <c r="AKL1" s="6"/>
+      <c r="AKM1" s="6"/>
+      <c r="AKN1" s="6"/>
+      <c r="AKO1" s="6"/>
+      <c r="AKP1" s="6"/>
+      <c r="AKQ1" s="6"/>
+      <c r="AKR1" s="6"/>
+      <c r="AKS1" s="6"/>
+      <c r="AKT1" s="6"/>
+      <c r="AKU1" s="6"/>
+      <c r="AKV1" s="6"/>
+      <c r="AKW1" s="6"/>
+      <c r="AKX1" s="6"/>
+      <c r="AKY1" s="6"/>
+      <c r="AKZ1" s="6"/>
+      <c r="ALA1" s="6"/>
+      <c r="ALB1" s="6"/>
+      <c r="ALC1" s="6"/>
+      <c r="ALD1" s="6"/>
+      <c r="ALE1" s="6"/>
+      <c r="ALF1" s="6"/>
+      <c r="ALG1" s="6"/>
+      <c r="ALH1" s="6"/>
+      <c r="ALI1" s="6"/>
+      <c r="ALJ1" s="6"/>
+      <c r="ALK1" s="6"/>
+      <c r="ALL1" s="6"/>
+      <c r="ALM1" s="6"/>
+      <c r="ALN1" s="6"/>
+      <c r="ALO1" s="6"/>
+      <c r="ALP1" s="6"/>
+    </row>
+    <row r="2" ht="51" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
